--- a/www/IndicatorsPerCountry/CongoDRC_GDPperCapita_TerritorialRef_1960_2012_CCode_180.xlsx
+++ b/www/IndicatorsPerCountry/CongoDRC_GDPperCapita_TerritorialRef_1960_2012_CCode_180.xlsx
@@ -225,13 +225,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/CongoDRC_GDPperCapita_TerritorialRef_1960_2012_CCode_180.xlsx
+++ b/www/IndicatorsPerCountry/CongoDRC_GDPperCapita_TerritorialRef_1960_2012_CCode_180.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="78">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,166 +36,181 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>693</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>697</t>
+    <t>909</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>737.934490092681</t>
+  </si>
+  <si>
+    <t>656.691651156199</t>
+  </si>
+  <si>
+    <t>563.71093100535</t>
+  </si>
+  <si>
+    <t>525.388717427869</t>
+  </si>
+  <si>
+    <t>531.990921495922</t>
+  </si>
+  <si>
+    <t>523.868062041872</t>
+  </si>
+  <si>
+    <t>489.642164758035</t>
+  </si>
+  <si>
+    <t>472.923964475332</t>
+  </si>
+  <si>
+    <t>452.004421422413</t>
+  </si>
+  <si>
+    <t>414.046947048094</t>
+  </si>
+  <si>
+    <t>403.6018922542</t>
+  </si>
+  <si>
+    <t>413.825212735492</t>
+  </si>
+  <si>
+    <t>436.028486254343</t>
+  </si>
+  <si>
+    <t>463.996975838844</t>
+  </si>
+  <si>
+    <t>490.690494007437</t>
+  </si>
+  <si>
+    <t>515.258365852912</t>
+  </si>
+  <si>
+    <t>546.036795512043</t>
+  </si>
+  <si>
+    <t>578.848721083029</t>
+  </si>
+  <si>
+    <t>595.016055121906</t>
+  </si>
+  <si>
+    <t>637.129849905218</t>
   </si>
   <si>
     <t>681</t>
   </si>
   <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>510.199639106</t>
-  </si>
-  <si>
-    <t>451.39426475</t>
-  </si>
-  <si>
-    <t>391.306327169</t>
-  </si>
-  <si>
-    <t>327.310235953</t>
-  </si>
-  <si>
-    <t>303.909762696</t>
-  </si>
-  <si>
-    <t>293.575403523</t>
-  </si>
-  <si>
-    <t>284.339378097</t>
-  </si>
-  <si>
-    <t>265.594834342</t>
-  </si>
-  <si>
-    <t>255.376626459</t>
-  </si>
-  <si>
-    <t>237.067796113</t>
-  </si>
-  <si>
-    <t>214.164764892</t>
-  </si>
-  <si>
-    <t>203.413320236</t>
-  </si>
-  <si>
-    <t>204.256956805</t>
-  </si>
-  <si>
-    <t>210.046502611</t>
-  </si>
-  <si>
-    <t>217.764023313</t>
-  </si>
-  <si>
-    <t>227.961940241</t>
-  </si>
-  <si>
-    <t>233.662755035</t>
-  </si>
-  <si>
-    <t>241.21367846</t>
-  </si>
-  <si>
-    <t>248.972194294</t>
-  </si>
-  <si>
-    <t>249.146172547</t>
-  </si>
-  <si>
-    <t>260.003094747</t>
+    <t>710</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>836</t>
   </si>
   <si>
     <t>Description</t>
@@ -1336,6 +1351,108 @@
         <v>60</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1351,50 +1468,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
